--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail7 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3174,28 +3174,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>1.428442693914392e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1204901505858164</v>
+        <v>5.345264326283679e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9920254792789711</v>
+        <v>4.552077534924382e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.345264326283679e-07</v>
+        <v>-0.02069308208659308</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.552077534924382e-06</v>
+        <v>0.2304386976145159</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02069308208659308</v>
+        <v>0.05352898414609986</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2304386976145159</v>
+        <v>1.88322030675366</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05352898414609986</v>
+        <v>1.795424537588189</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.880297289339519</v>
+        <v>4.681063840406668</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.795424537588189</v>
+        <v>2.762091979465438e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.681063840406668</v>
+        <v>152630367.3076352</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.762091979465438e-15</v>
+        <v>7.903816833317275e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>152630367.3076352</v>
+        <v>64.3457749218651</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.903816833317275e-07</v>
+        <v>0.00011770431409736</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>64.3457749218651</v>
+        <v>9.866032307671503</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.00011770431409736</v>
+        <v>1.225188571407251</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.866032307671503</v>
+        <v>0.01145717238265053</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.225188571407251</v>
+        <v>3.265512778481658</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01145717238265053</v>
+        <v>0.961617673330616</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.265512778481658</v>
+        <v>1.484164950010864</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.961617673330616</v>
+        <v>42</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.484164950010864</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4065528755441921</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>1.46489280771153e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.07995053562691624</v>
+        <v>5.557634035374671e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.00471775956737</v>
+        <v>4.548966060628909e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.557634035374671e-07</v>
+        <v>-0.0224403746302392</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.548966060628909e-06</v>
+        <v>0.2252649872397589</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0224403746302392</v>
+        <v>0.0512464526448796</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2252649872397589</v>
+        <v>1.877749851401696</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0512464526448796</v>
+        <v>1.985582028647372</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.881734281267509</v>
+        <v>4.077708301989155</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.985582028647372</v>
+        <v>1.995800967128922e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.077708301989155</v>
+        <v>217139962.0310502</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.995800967128922e-15</v>
+        <v>5.52628891076042e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>217139962.0310502</v>
+        <v>94.10154281652585</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.52628891076042e-07</v>
+        <v>0.0001133170427718045</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>94.10154281652585</v>
+        <v>11.55599646936125</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001133170427718045</v>
+        <v>1.210783371992951</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.55599646936125</v>
+        <v>0.01513247737322415</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.210783371992951</v>
+        <v>3.25596352876503</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01513247737322415</v>
+        <v>0.962663679864045</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.25596352876503</v>
+        <v>1.467289064436702</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.962663679864045</v>
+        <v>42</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.467289064436702</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.445505240339653</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>1.506478506526763e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.03431464527632377</v>
+        <v>5.781493015921409e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.008390790614633</v>
+        <v>4.54546529759107e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.781493015921409e-07</v>
+        <v>-0.02481602099877847</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.54546529759107e-06</v>
+        <v>0.219521101450982</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02481602099877847</v>
+        <v>0.04880377323615095</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.219521101450982</v>
+        <v>1.873239452928077</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04880377323615095</v>
+        <v>2.170568971181148</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.881570876186542</v>
+        <v>4.241360943277838</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.170568971181148</v>
+        <v>1.844756604352596e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.241360943277838</v>
+        <v>232554434.1528498</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.844756604352596e-15</v>
+        <v>5.156692766406531e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>232554434.1528498</v>
+        <v>99.76732391997287</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.156692766406531e-07</v>
+        <v>0.0001276104356937954</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>99.76732391997287</v>
+        <v>11.63731044042163</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001276104356937954</v>
+        <v>1.365151948740869</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.63731044042163</v>
+        <v>0.01728189774563283</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.365151948740869</v>
+        <v>3.297194469062807</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01728189774563283</v>
+        <v>0.9627193732989074</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.297194469062807</v>
+        <v>1.441006399554443</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9627193732989074</v>
+        <v>57</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.441006399554443</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4553997034055206</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>1.553574626007558e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.0125610151382091</v>
+        <v>6.000442845841651e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.00663607662653</v>
+        <v>4.541449716768315e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.000442845841651e-07</v>
+        <v>-0.02772478541149722</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.541449716768315e-06</v>
+        <v>0.2129504019617602</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02772478541149722</v>
+        <v>0.04611480588946596</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2129504019617602</v>
+        <v>1.881186195906126</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04611480588946596</v>
+        <v>2.329732220445812</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.885092785682554</v>
+        <v>4.2638152505821</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.329732220445812</v>
+        <v>1.825377875170055e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.2638152505821</v>
+        <v>242808957.2396328</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.825377875170055e-15</v>
+        <v>4.966244304069595e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>242808957.2396328</v>
+        <v>107.6173243115457</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.966244304069595e-07</v>
+        <v>0.0001214320869107798</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>107.6173243115457</v>
+        <v>8.659694097736336</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001214320869107798</v>
+        <v>1.76067350416989</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.659694097736336</v>
+        <v>0.009106228853702599</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.76067350416989</v>
+        <v>3.442482563753238</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009106228853702599</v>
+        <v>0.9623652323787045</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.442482563753238</v>
+        <v>1.40732962380651</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9623652323787045</v>
+        <v>50</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.40732962380651</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4253749181997758</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>1.605665778176257e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0560100536683697</v>
+        <v>6.205132303705737e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.003819461725671</v>
+        <v>4.536846585963346e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.205132303705737e-07</v>
+        <v>-0.03041015141100881</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.536846585963346e-06</v>
+        <v>0.2058880915688548</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03041015141100881</v>
+        <v>0.04331355972118895</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2058880915688548</v>
+        <v>1.882598852251596</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04331355972118895</v>
+        <v>2.219712073858356</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.882705642111574</v>
+        <v>4.254831547311049</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.219712073858356</v>
+        <v>1.833094263075805e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.254831547311049</v>
+        <v>240078684.1229406</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.833094263075805e-15</v>
+        <v>5.01845414893143e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>240078684.1229406</v>
+        <v>105.6554739010951</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.01845414893143e-07</v>
+        <v>0.0001173978150840339</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>105.6554739010951</v>
+        <v>7.241834213166567</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001173978150840339</v>
+        <v>1.646070922136189</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.241834213166567</v>
+        <v>0.006156830123225642</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.646070922136189</v>
+        <v>3.392397559650303</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006156830123225642</v>
+        <v>0.9622559081935379</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.392397559650303</v>
+        <v>1.4619935460836</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9622559081935379</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.4619935460836</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3863526936294759</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>1.66127876415193e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.09371256596927934</v>
+        <v>6.381452191909912e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.003427589659164</v>
+        <v>4.531757296890828e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.381452191909912e-07</v>
+        <v>-0.03181101619538731</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.531757296890828e-06</v>
+        <v>0.1990120125074659</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03181101619538731</v>
+        <v>0.04061687230120762</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1990120125074659</v>
+        <v>1.876943709340741</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04061687230120762</v>
+        <v>2.186179234454924</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.877161612664468</v>
+        <v>4.20907784104434</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.186179234454924</v>
+        <v>1.873163232111212e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.20907784104434</v>
+        <v>229073951.4775532</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.873163232111212e-15</v>
+        <v>5.261964625246641e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>229073951.4775532</v>
+        <v>98.29400691956904</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.261964625246641e-07</v>
+        <v>0.0001134557027874113</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>98.29400691956904</v>
+        <v>8.371032855588796</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001134557027874113</v>
+        <v>1.294301855564271</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.371032855588796</v>
+        <v>0.00795031659503212</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.294301855564271</v>
+        <v>3.297380820044439</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00795031659503212</v>
+        <v>0.9600269957029046</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.297380820044439</v>
+        <v>1.4664784783622</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9600269957029046</v>
+        <v>38</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.4664784783622</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3954239003529706</v>
       </c>
     </row>
@@ -3821,72 +3773,66 @@
         <v>1.718698179531443e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1210831177337189</v>
+        <v>6.513958725424582e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.011009795595122</v>
+        <v>4.526176871600269e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.513958725424582e-07</v>
+        <v>-0.03449508306074124</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.526176871600269e-06</v>
+        <v>0.1909575336970604</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03449508306074124</v>
+        <v>0.03765137028349181</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1909575336970604</v>
+        <v>1.879000797317357</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03765137028349181</v>
+        <v>2.110722245732689</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.879170063677758</v>
+        <v>4.106296910884073</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.110722245732689</v>
+        <v>1.968107619796079e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.106296910884073</v>
+        <v>219558018.3830118</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.968107619796079e-15</v>
+        <v>5.490006185712475e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>219558018.3830118</v>
+        <v>94.87405161271512</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.490006185712475e-07</v>
+        <v>0.0001147282356509388</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>94.87405161271512</v>
+        <v>10.86149943478408</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001147282356509388</v>
+        <v>1.214695073738413</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.86149943478408</v>
+        <v>0.01353473891677897</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.214695073738413</v>
+        <v>3.218375229197178</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01353473891677897</v>
+        <v>0.9601051025216331</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.218375229197178</v>
+        <v>1.413471604721295</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9601051025216331</v>
+        <v>38</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.413471604721295</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4321277761343299</v>
       </c>
     </row>
@@ -3901,72 +3847,66 @@
         <v>1.774964859326723e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1289275999658465</v>
+        <v>6.583976241511591e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.029082347712268</v>
+        <v>4.519805601523918e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.583976241511591e-07</v>
+        <v>-0.03842284013615963</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.519805601523918e-06</v>
+        <v>0.1808474000206276</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03842284013615963</v>
+        <v>0.03417720459017801</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1808474000206276</v>
+        <v>1.881426680449043</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03417720459017801</v>
+        <v>2.053004838830945</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.878156336456457</v>
+        <v>3.962370762810823</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.053004838830945</v>
+        <v>2.113680392067632e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.962370762810823</v>
+        <v>202017410.4404383</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.113680392067632e-15</v>
+        <v>5.965015435329904e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>202017410.4404383</v>
+        <v>86.26148260168867</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.965015435329904e-07</v>
+        <v>0.0001290315134647252</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>86.26148260168867</v>
+        <v>12.97451292290268</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001290315134647252</v>
+        <v>1.18095123139673</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.97451292290268</v>
+        <v>0.02172090505383806</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.18095123139673</v>
+        <v>3.158160474882347</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02172090505383806</v>
+        <v>0.9597840077613174</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.158160474882347</v>
+        <v>1.457426744161977</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9597840077613174</v>
+        <v>38</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.457426744161977</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.487668712276838</v>
       </c>
     </row>
@@ -3981,72 +3921,66 @@
         <v>1.825436090476524e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1154622264316923</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.051174329812359</v>
+        <v>4.512586996086229e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.04133612019512041</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.512586996086229e-06</v>
+        <v>0.1722776747680899</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04133612019512041</v>
+        <v>0.03138640771863873</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1722776747680899</v>
+        <v>1.880315628527646</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03138640771863873</v>
+        <v>2.034720917323066</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.880307601112606</v>
+        <v>3.936412780520111</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.034720917323066</v>
+        <v>2.141648893466081e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.936412780520111</v>
+        <v>199670951.8876197</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.141648893466081e-15</v>
+        <v>6.01403886102391e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>199670951.8876197</v>
+        <v>85.38430541035574</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.01403886102391e-07</v>
+        <v>0.0001340950038228281</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>85.38430541035574</v>
+        <v>11.33423541273612</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001340950038228281</v>
+        <v>1.398552839749584</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.33423541273612</v>
+        <v>0.01722650023631344</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.398552839749584</v>
+        <v>3.316833079706506</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01722650023631344</v>
+        <v>0.9605107921351608</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.316833079706506</v>
+        <v>1.461555870276022</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9605107921351608</v>
+        <v>38</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.461555870276022</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5047235841248048</v>
       </c>
     </row>
@@ -4061,72 +3995,66 @@
         <v>1.86765898699195e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0865385258550052</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.073622497776103</v>
+        <v>4.50485126397964e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.04207618053618008</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.50485126397964e-06</v>
+        <v>0.1671624153716706</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04207618053618008</v>
+        <v>0.02971326978613555</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1671624153716706</v>
+        <v>1.876027479995118</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02971326978613555</v>
+        <v>1.931814997129566</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.873562879606166</v>
+        <v>3.959502386152943</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.931814997129566</v>
+        <v>2.116743922254767e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.959502386152943</v>
+        <v>198580741.6063415</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.116743922254767e-15</v>
+        <v>6.044512269922232e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>198580741.6063415</v>
+        <v>83.47233800403971</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.044512269922232e-07</v>
+        <v>0.000130627022287778</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>83.47233800403971</v>
+        <v>8.737884687993708</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000130627022287778</v>
+        <v>1.59432529269542</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.737884687993708</v>
+        <v>0.009973455292644168</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.59432529269542</v>
+        <v>3.365107812296022</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009973455292644168</v>
+        <v>0.9604824309670792</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.365107812296022</v>
+        <v>1.426654185272572</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9604824309670792</v>
+        <v>38</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.426654185272572</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5151406993149874</v>
       </c>
     </row>
@@ -4141,72 +4069,66 @@
         <v>1.901033690828622e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.04586569097506962</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.096286030957724</v>
+        <v>4.496978863531313e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.04132675624015477</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.496978863531313e-06</v>
+        <v>0.1642398156923512</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04132675624015477</v>
+        <v>0.02868179000513002</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1642398156923512</v>
+        <v>1.879158566487941</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02868179000513002</v>
+        <v>1.988659642262267</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.878877681060324</v>
+        <v>3.969281414725358</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.988659642262267</v>
+        <v>2.160687355538622e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.969281414725358</v>
+        <v>197156354.5130795</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.160687355538622e-15</v>
+        <v>6.090894622516349e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>197156354.5130795</v>
+        <v>83.98727469128745</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.090894622516349e-07</v>
+        <v>0.0001356890056627621</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>83.98727469128745</v>
+        <v>9.257401327298041</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001356890056627621</v>
+        <v>1.227142327539602</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.257401327298041</v>
+        <v>0.01162847713673638</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.227142327539602</v>
+        <v>3.197787747049261</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01162847713673638</v>
+        <v>0.9603419975698371</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.197787747049261</v>
+        <v>1.444274119329042</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9603419975698371</v>
+        <v>38</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.444274119329042</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6048147866439906</v>
       </c>
     </row>
@@ -4221,72 +4143,66 @@
         <v>1.92379527158437e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.005173065864538639</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.113210530058468</v>
+        <v>4.489107684722992e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.04099700142602025</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.489107684722992e-06</v>
+        <v>0.1621488706334315</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04099700142602025</v>
+        <v>0.02797156529179518</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1621488706334315</v>
+        <v>1.882097037649005</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02797156529179518</v>
+        <v>2.032845916745987</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.892641817308299</v>
+        <v>4.034660147707652</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.032845916745987</v>
+        <v>2.091229971545523e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.034660147707652</v>
+        <v>209080750.2547895</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.091229971545523e-15</v>
+        <v>5.768927349608733e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>209080750.2547895</v>
+        <v>91.41761657672654</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.768927349608733e-07</v>
+        <v>0.0001638170248496843</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>91.41761657672654</v>
+        <v>11.0662058371142</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001638170248496843</v>
+        <v>1.152626714410081</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.0662058371142</v>
+        <v>0.02006118220350519</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.152626714410081</v>
+        <v>3.026174486671459</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02006118220350519</v>
+        <v>0.9595055405663575</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.026174486671459</v>
+        <v>1.378909034280917</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9595055405663575</v>
+        <v>37</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.378909034280917</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6986217807095347</v>
       </c>
     </row>
@@ -4301,72 +4217,66 @@
         <v>1.934912869124769e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.06337295191677536</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.116020311011461</v>
+        <v>4.481237782013008e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.04035661335209938</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.481237782013008e-06</v>
+        <v>0.1615056225226943</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04035661335209938</v>
+        <v>0.02771248273333238</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1615056225226943</v>
+        <v>1.855090136497276</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02771248273333238</v>
+        <v>1.995047097196226</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.845973989350185</v>
+        <v>4.911277449809377</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.995047097196226</v>
+        <v>2.500113775914567e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.911277449809377</v>
+        <v>175203590.8101614</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.500113775914567e-15</v>
+        <v>6.852585276433023e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>175203590.8101614</v>
+        <v>76.74423808134142</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.852585276433023e-07</v>
+        <v>0.0002207160178550455</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>76.74423808134142</v>
+        <v>12.006361804115</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002207160178550455</v>
+        <v>1.312599593450198</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.006361804115</v>
+        <v>0.03181681515376223</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.312599593450198</v>
+        <v>2.914359744652956</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03181681515376223</v>
+        <v>0.9575804816897163</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.914359744652956</v>
+        <v>1.41138301670767</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9575804816897163</v>
+        <v>33</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.41138301670767</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.7257805415930046</v>
       </c>
     </row>
@@ -4381,72 +4291,66 @@
         <v>1.938850651539498e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1252076488206272</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.104788283739267</v>
+        <v>4.473538113053961e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.03905116654575003</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.473538113053961e-06</v>
+        <v>0.1614931857941483</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03905116654575003</v>
+        <v>0.02760480550244421</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1614931857941483</v>
+        <v>1.857492696564286</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02760480550244421</v>
+        <v>1.950822380694434</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.840166800649955</v>
+        <v>4.337944296407312</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.950822380694434</v>
+        <v>4.034165542105332e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.337944296407312</v>
+        <v>110102221.6700507</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.034165542105332e-15</v>
+        <v>1.089808462711121e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>110102221.6700507</v>
+        <v>48.90416862413328</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.089808462711121e-06</v>
+        <v>0.0002599462154556631</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>48.90416862413328</v>
+        <v>11.19332372504206</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002599462154556631</v>
+        <v>1.551532966068118</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.19332372504206</v>
+        <v>0.03256879027129544</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.551532966068118</v>
+        <v>2.768674884800496</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03256879027129544</v>
+        <v>0.958106626478931</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.768674884800496</v>
+        <v>1.533171366615452</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.958106626478931</v>
+        <v>26</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.533171366615452</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4588328997216852</v>
       </c>
     </row>
@@ -4461,72 +4365,66 @@
         <v>1.942172772718158e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1885658758005757</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.084949928843285</v>
+        <v>4.466130269934918e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.03719769804181521</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.466130269934918e-06</v>
+        <v>0.1609042393631719</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03719769804181521</v>
+        <v>0.02727249939270412</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1609042393631719</v>
+        <v>1.863921790646195</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02727249939270412</v>
+        <v>1.942900077964402</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.849570921000313</v>
+        <v>4.305913018714785</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.942900077964402</v>
+        <v>4.094408330046475e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.305913018714785</v>
+        <v>112454404.2479232</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.094408330046475e-15</v>
+        <v>1.069302477468105e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>112454404.2479232</v>
+        <v>51.77785922321188</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.069302477468105e-06</v>
+        <v>0.0001843486717699932</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>51.77785922321188</v>
+        <v>11.12939435943309</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001843486717699932</v>
+        <v>1.219497633213246</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.12939435943309</v>
+        <v>0.02283405673810482</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.219497633213246</v>
+        <v>2.842961144360312</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02283405673810482</v>
+        <v>0.9576429904428266</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.842961144360312</v>
+        <v>1.525581980237765</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9576429904428266</v>
+        <v>26</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.525581980237765</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3304619346932737</v>
       </c>
     </row>
@@ -4541,72 +4439,66 @@
         <v>1.948575551998098e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2513935028619101</v>
+        <v>6.59508192743724e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.063332760957254</v>
+        <v>4.459135340065378e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.59508192743724e-07</v>
+        <v>-0.03462819038968636</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.459135340065378e-06</v>
+        <v>0.1594195377725022</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03462819038968636</v>
+        <v>0.02661152954508005</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1594195377725022</v>
+        <v>1.866302628956447</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02661152954508005</v>
+        <v>1.955421383973057</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.845537631128337</v>
+        <v>4.499091823695588</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.955421383973057</v>
+        <v>3.750351239457999e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.499091823695588</v>
+        <v>120422382.2198246</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.750351239457999e-15</v>
+        <v>9.874723740308693e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>120422382.2198246</v>
+        <v>54.38590653972685</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.874723740308693e-07</v>
+        <v>0.0001619125337723995</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>54.38590653972685</v>
+        <v>11.11640124872814</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001619125337723995</v>
+        <v>1.070287840471204</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.11640124872814</v>
+        <v>0.02000824044452134</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.070287840471204</v>
+        <v>2.706062655545473</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02000824044452134</v>
+        <v>0.9573789454012737</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.706062655545473</v>
+        <v>1.508340377128037</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9573789454012737</v>
+        <v>37</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.508340377128037</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2833549454645792</v>
       </c>
     </row>
@@ -4983,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374552544412157</v>
+        <v>1.357778674030481</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.597207445846139</v>
@@ -5072,7 +4964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.391263382451973</v>
+        <v>1.372412803646325</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.423818179013767</v>
@@ -5161,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.386292137510177</v>
+        <v>1.362218744811426</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.694740304241505</v>
@@ -5250,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.395357969585867</v>
+        <v>1.365701237967499</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.578512117986715</v>
@@ -5339,7 +5231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.399377944739752</v>
+        <v>1.367018064607539</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.294701606247456</v>
@@ -5428,7 +5320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421364751367179</v>
+        <v>1.383982397134786</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.541840580551407</v>
@@ -5517,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.469692646665417</v>
+        <v>1.417297357595544</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.369397384304378</v>
@@ -5606,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476139136471962</v>
+        <v>1.425153757127864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784721050037923</v>
@@ -5695,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.485774256083209</v>
+        <v>1.435740076824034</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.754015060201751</v>
@@ -5784,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499875671230046</v>
+        <v>1.445383490880368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.281500395269282</v>
@@ -5873,7 +5765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5187484542926</v>
+        <v>1.461581165889719</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.690280108918183</v>
@@ -5962,7 +5854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.527690572692117</v>
+        <v>1.472204100098534</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.509315668862568</v>
@@ -6051,7 +5943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.546063135644438</v>
+        <v>1.488856774907604</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.464118068075564</v>
@@ -6140,7 +6032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.54955668927839</v>
+        <v>1.493517600101745</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.605524218602589</v>
@@ -6229,7 +6121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530776425359312</v>
+        <v>1.479748588157343</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.397811166458469</v>
@@ -6318,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.541645702525313</v>
+        <v>1.485792921289187</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.562674075189942</v>
@@ -6407,7 +6299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545233079672524</v>
+        <v>1.488104211155175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.35251188980965</v>
@@ -6496,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562674739123461</v>
+        <v>1.509333516532813</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.589182411006573</v>
@@ -6585,7 +6477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583893606018132</v>
+        <v>1.530762624875825</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.498493052258261</v>
@@ -6674,7 +6566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.563184201423212</v>
+        <v>1.524136192796926</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.449513619597588</v>
@@ -6763,7 +6655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561521292844889</v>
+        <v>1.518796713909325</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.578071963011663</v>
@@ -6852,7 +6744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562731564196248</v>
+        <v>1.525767243941837</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.628203877722985</v>
@@ -6941,7 +6833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559285092722666</v>
+        <v>1.517411233025615</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.643513486721841</v>
@@ -7030,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.582132931296541</v>
+        <v>1.538745796334968</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.631057431848793</v>
@@ -7119,7 +7011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578597044492769</v>
+        <v>1.539703077852597</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.559791947720789</v>
@@ -7208,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572299351701731</v>
+        <v>1.528976538277911</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.727427151502396</v>
@@ -7297,7 +7189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585304812694695</v>
+        <v>1.546862669503821</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.545450686730975</v>
@@ -7386,7 +7278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.564972223242871</v>
+        <v>1.531080115474329</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.532633861482462</v>
@@ -7475,7 +7367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567970879481563</v>
+        <v>1.531415311372701</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.66324573720132</v>
@@ -7564,7 +7456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588904688538178</v>
+        <v>1.552693674237909</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.556486397742402</v>
@@ -7653,7 +7545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.565056354339392</v>
+        <v>1.530050525317688</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.622070708620274</v>
@@ -7742,7 +7634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.574525621962195</v>
+        <v>1.541065629215683</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.51816820101932</v>
@@ -7831,7 +7723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.571637007785567</v>
+        <v>1.538300581527383</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.605179564874221</v>
@@ -7920,7 +7812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.564302442427088</v>
+        <v>1.533950900928621</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.399108807928922</v>
@@ -8009,7 +7901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582226494728492</v>
+        <v>1.547292035469751</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.78326837314929</v>
@@ -8098,7 +7990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580434991515344</v>
+        <v>1.541651179054097</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.019436195701993</v>
@@ -8187,7 +8079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578051669438693</v>
+        <v>1.537461251720095</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.719656759453634</v>
@@ -8276,7 +8168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.55606526547718</v>
+        <v>1.517728249848728</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.443004904908275</v>
@@ -8365,7 +8257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546170579141503</v>
+        <v>1.508919270094223</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.770888858163409</v>
@@ -8454,7 +8346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.55148375998033</v>
+        <v>1.507422368438617</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.781487644251249</v>
@@ -8543,7 +8435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.575253785932269</v>
+        <v>1.524768693826343</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.767371435298883</v>
@@ -8632,7 +8524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577131999678551</v>
+        <v>1.525901813694681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.560044176849972</v>
@@ -8721,7 +8613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.599108807268325</v>
+        <v>1.541776593776826</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.522019610355592</v>
@@ -8810,7 +8702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601221038369838</v>
+        <v>1.544249804659611</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.657214545051293</v>
@@ -8899,7 +8791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606579426542121</v>
+        <v>1.553384611659687</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.895874773808893</v>
@@ -8988,7 +8880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628165278882699</v>
+        <v>1.577412518030541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.656126725123112</v>
@@ -9077,7 +8969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615480151934305</v>
+        <v>1.564902761844476</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.626975957647993</v>
@@ -9166,7 +9058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.620557580060302</v>
+        <v>1.572491066040101</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.658164503112096</v>
@@ -9255,7 +9147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6308126592148</v>
+        <v>1.582696448970129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.737529222702304</v>
@@ -9344,7 +9236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.64326844047221</v>
+        <v>1.592542350927087</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.573855087598364</v>
@@ -9433,7 +9325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.646691748696489</v>
+        <v>1.601151937475615</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.585981136471936</v>
@@ -9522,7 +9414,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.632298364419296</v>
+        <v>1.593296127864554</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.437561286930159</v>
@@ -9611,7 +9503,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.656326451927658</v>
+        <v>1.621514137799091</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.638653200579567</v>
@@ -9700,7 +9592,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.663312490716597</v>
+        <v>1.624921684398394</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.733055571792254</v>
@@ -9789,7 +9681,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.666506203623763</v>
+        <v>1.633188572427894</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.747290560958167</v>
@@ -9878,7 +9770,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65261384706755</v>
+        <v>1.62413819719584</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.689269761189371</v>
@@ -9967,7 +9859,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.651363117478518</v>
+        <v>1.620359335406854</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.801729827794915</v>
@@ -10056,7 +9948,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.650542800958139</v>
+        <v>1.617387291739867</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.726801604706455</v>
@@ -10145,7 +10037,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.650928994129667</v>
+        <v>1.616177504153855</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.756240073411457</v>
@@ -10234,7 +10126,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.645602971390668</v>
+        <v>1.612852038905717</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.592628605598528</v>
@@ -10323,7 +10215,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.630193121808653</v>
+        <v>1.596511198012943</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.723332100680945</v>
@@ -10609,7 +10501,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481211772082749</v>
+        <v>1.448653986166439</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.436800196494193</v>
@@ -10698,7 +10590,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5272502985736</v>
+        <v>1.48284671668458</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.573513342193731</v>
@@ -10787,7 +10679,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.548449258205592</v>
+        <v>1.49604539722407</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.227754637851442</v>
@@ -10876,7 +10768,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564360320222343</v>
+        <v>1.503108084797536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.624751865237053</v>
@@ -10965,7 +10857,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569134421055849</v>
+        <v>1.504365912584967</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.672807782422374</v>
@@ -11054,7 +10946,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.572871804652278</v>
+        <v>1.504510112349163</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.902070319851171</v>
@@ -11143,7 +11035,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582930698492114</v>
+        <v>1.518841944100779</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.541108159376174</v>
@@ -11232,7 +11124,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.609946862313685</v>
+        <v>1.541703521865956</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.172224349563576</v>
@@ -11321,7 +11213,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.620050719734694</v>
+        <v>1.546123032425964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.823105185323024</v>
@@ -11410,7 +11302,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61954148029014</v>
+        <v>1.542622783253905</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.956393158366327</v>
@@ -11499,7 +11391,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.612054484693346</v>
+        <v>1.534534917776203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.743766391290858</v>
@@ -11588,7 +11480,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60349140696857</v>
+        <v>1.540302174627352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.691553485901256</v>
@@ -11677,7 +11569,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593826183096041</v>
+        <v>1.532739682029406</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.465677631465186</v>
@@ -11766,7 +11658,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589747189909759</v>
+        <v>1.534234214949627</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.719337565202361</v>
@@ -11855,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588442526810494</v>
+        <v>1.537351483939291</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.677918677563617</v>
@@ -11944,7 +11836,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585750883062983</v>
+        <v>1.534559268781141</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.68926505987747</v>
@@ -12033,7 +11925,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.588518382234875</v>
+        <v>1.539361175062385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.654836423871723</v>
@@ -12122,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.590439330479392</v>
+        <v>1.542112131540692</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.616950059930549</v>
@@ -12211,7 +12103,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586047933189512</v>
+        <v>1.545391584275701</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.440006937442814</v>
@@ -12300,7 +12192,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58246814648934</v>
+        <v>1.542665274203947</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.577978955647298</v>
@@ -12389,7 +12281,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587875071558601</v>
+        <v>1.539994446216489</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.630300124609146</v>
@@ -12478,7 +12370,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564147606462299</v>
+        <v>1.524788839521012</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.644595998926435</v>
@@ -12567,7 +12459,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555963555004462</v>
+        <v>1.521181886456713</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.685763607982378</v>
@@ -12656,7 +12548,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550212671440192</v>
+        <v>1.520815080224557</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.653484145118929</v>
@@ -12745,7 +12637,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.535311404229181</v>
+        <v>1.509824032357576</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.668294761348924</v>
@@ -12834,7 +12726,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.557540589353368</v>
+        <v>1.526164721425035</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.590792674310174</v>
@@ -12923,7 +12815,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535232817215942</v>
+        <v>1.503318272770245</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.722308582337082</v>
@@ -13012,7 +12904,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531748500598384</v>
+        <v>1.50073768582573</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.689951868760386</v>
@@ -13101,7 +12993,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525562365321526</v>
+        <v>1.493695037237873</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.833079729150141</v>
@@ -13190,7 +13082,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.524317138148521</v>
+        <v>1.492862890940988</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.835329251700794</v>
@@ -13279,7 +13171,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529727228441622</v>
+        <v>1.494538064860825</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.887013165115956</v>
@@ -13368,7 +13260,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529226824217802</v>
+        <v>1.49013771245971</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.643910997543168</v>
@@ -13457,7 +13349,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.5272049438071</v>
+        <v>1.489313153672188</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.757040406448633</v>
@@ -13546,7 +13438,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528635179819816</v>
+        <v>1.486309626192971</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.99056611701164</v>
@@ -13635,7 +13527,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.5253892923896</v>
+        <v>1.484413186839488</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.81494849420895</v>
@@ -13724,7 +13616,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524083855579077</v>
+        <v>1.485510264247469</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.77786144801842</v>
@@ -13813,7 +13705,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537799254428998</v>
+        <v>1.497211990165957</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.634872970494399</v>
@@ -13902,7 +13794,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.51734442079888</v>
+        <v>1.474318431365606</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.61984862065056</v>
@@ -13991,7 +13883,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.507445438882238</v>
+        <v>1.461475380850098</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.677249517061628</v>
@@ -14080,7 +13972,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519280846768225</v>
+        <v>1.46649449085528</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.895944250255604</v>
@@ -14169,7 +14061,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522829346754213</v>
+        <v>1.467131479787702</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.705253953826798</v>
@@ -14258,7 +14150,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.524812664687722</v>
+        <v>1.472445465549885</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.054614925705605</v>
@@ -14347,7 +14239,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535546014733405</v>
+        <v>1.481655519749485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.949799803034741</v>
@@ -14436,7 +14328,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.538294043284483</v>
+        <v>1.479905149119842</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.953888316205768</v>
@@ -14525,7 +14417,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53851627067883</v>
+        <v>1.480946099226609</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.015136075008359</v>
@@ -14614,7 +14506,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537119700485051</v>
+        <v>1.484491111410157</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.684679157859844</v>
@@ -14703,7 +14595,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53455950926513</v>
+        <v>1.486160629208915</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.773517620454646</v>
@@ -14792,7 +14684,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.534921759113758</v>
+        <v>1.484718401767182</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.870339500862765</v>
@@ -14881,7 +14773,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52992419208247</v>
+        <v>1.486166684179334</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.04422772768072</v>
@@ -14970,7 +14862,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.526314669836959</v>
+        <v>1.480069556566442</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.745164221583317</v>
@@ -15059,7 +14951,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.537695905672955</v>
+        <v>1.487595571793859</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.942175420086418</v>
@@ -15148,7 +15040,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.530235134897658</v>
+        <v>1.48014703526685</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.360683872803655</v>
@@ -15237,7 +15129,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.550590509402764</v>
+        <v>1.500580320206341</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.009344355166714</v>
@@ -15326,7 +15218,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.558423703602287</v>
+        <v>1.509046842581301</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.018385512615712</v>
@@ -15415,7 +15307,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.560219551343908</v>
+        <v>1.511650889195014</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.626097128778905</v>
@@ -15504,7 +15396,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560260034803445</v>
+        <v>1.507329372555245</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.818259506087262</v>
@@ -15593,7 +15485,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.55768590824375</v>
+        <v>1.505476333381314</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.019209369841391</v>
@@ -15682,7 +15574,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.547533342761434</v>
+        <v>1.497210202853668</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.560398346909869</v>
@@ -15771,7 +15663,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.563493795644634</v>
+        <v>1.511640202095795</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.8640810605258</v>
@@ -15860,7 +15752,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.557238521359915</v>
+        <v>1.506447943689619</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.739296380714014</v>
@@ -15949,7 +15841,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.561611133757113</v>
+        <v>1.509866138093075</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.822070522445512</v>
@@ -16235,7 +16127,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.525943916874883</v>
+        <v>1.47549047227005</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.139269786130483</v>
@@ -16324,7 +16216,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.519667741593001</v>
+        <v>1.469592697548088</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.096598244003347</v>
@@ -16413,7 +16305,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.506511269353963</v>
+        <v>1.455761898447704</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.025429707287687</v>
@@ -16502,7 +16394,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515816592630977</v>
+        <v>1.454007580345186</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.92539682854715</v>
@@ -16591,7 +16483,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516438693975398</v>
+        <v>1.451352988232842</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.719234840265561</v>
@@ -16680,7 +16572,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.522738646476015</v>
+        <v>1.458629888763874</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.889383910513442</v>
@@ -16769,7 +16661,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.540877403538341</v>
+        <v>1.471005039832014</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.975761926155667</v>
@@ -16858,7 +16750,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.530806675510445</v>
+        <v>1.468065104658567</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.813539647694745</v>
@@ -16947,7 +16839,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542179088290918</v>
+        <v>1.478773949717433</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.917041692982057</v>
@@ -17036,7 +16928,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.535957702369071</v>
+        <v>1.470281379818301</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.950362608713497</v>
@@ -17125,7 +17017,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542860661957433</v>
+        <v>1.469357037097005</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.817141073003948</v>
@@ -17214,7 +17106,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.53329626463437</v>
+        <v>1.462895525520993</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.856728330878386</v>
@@ -17303,7 +17195,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.535069735975459</v>
+        <v>1.467774433417681</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.639978153389218</v>
@@ -17392,7 +17284,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538108084260698</v>
+        <v>1.46401828453695</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.731008862332228</v>
@@ -17481,7 +17373,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531399800807795</v>
+        <v>1.455908068680149</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.808016063665407</v>
@@ -17570,7 +17462,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530554127220761</v>
+        <v>1.45438308767635</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.966560652199188</v>
@@ -17659,7 +17551,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.539528205335604</v>
+        <v>1.464303973189778</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.673349840122231</v>
@@ -17748,7 +17640,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.555099642350463</v>
+        <v>1.476561130643114</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.877083008156957</v>
@@ -17837,7 +17729,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562688338608047</v>
+        <v>1.488349247164935</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.893248707884543</v>
@@ -17926,7 +17818,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569470065301683</v>
+        <v>1.495804343478749</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.018338996199629</v>
@@ -18015,7 +17907,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565804571917391</v>
+        <v>1.487382194424398</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.022002283161345</v>
@@ -18104,7 +17996,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556431902060725</v>
+        <v>1.483894916829267</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.962595110064216</v>
@@ -18193,7 +18085,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559378461583829</v>
+        <v>1.482072794489162</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.028045932613402</v>
@@ -18282,7 +18174,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561410261627997</v>
+        <v>1.481904934237165</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.942188368707373</v>
@@ -18371,7 +18263,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561128079202355</v>
+        <v>1.483212527005315</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.94606057351961</v>
@@ -18460,7 +18352,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.569014178853897</v>
+        <v>1.486505399960492</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.374444822039068</v>
@@ -18549,7 +18441,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567507219057779</v>
+        <v>1.487851555192907</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.33439332455356</v>
@@ -18638,7 +18530,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.559764136896199</v>
+        <v>1.480871419451704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.136852861417036</v>
@@ -18727,7 +18619,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554558391439382</v>
+        <v>1.48006237365531</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.09300376075377</v>
@@ -18816,7 +18708,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.554181212487227</v>
+        <v>1.48047379541559</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822130102382791</v>
@@ -18905,7 +18797,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554134201657462</v>
+        <v>1.478466117931585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.893450252006774</v>
@@ -18994,7 +18886,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.540573256880351</v>
+        <v>1.464491983350572</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94103846968703</v>
@@ -19083,7 +18975,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542518819886475</v>
+        <v>1.466942283090521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.245367477278646</v>
@@ -19172,7 +19064,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535302368169731</v>
+        <v>1.464016230198082</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.212372917312126</v>
@@ -19261,7 +19153,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503325603383377</v>
+        <v>1.437992042368447</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.396728418390099</v>
@@ -19350,7 +19242,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507007008447155</v>
+        <v>1.443417956403773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.501091724684544</v>
@@ -19439,7 +19331,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517039909265855</v>
+        <v>1.457218590622307</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.395157836595431</v>
@@ -19528,7 +19420,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510712669048449</v>
+        <v>1.451860173479226</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.482001424955719</v>
@@ -19617,7 +19509,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509047937276891</v>
+        <v>1.452943187805149</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.258451274663963</v>
@@ -19706,7 +19598,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512399091602224</v>
+        <v>1.456209286986457</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.402471901827437</v>
@@ -19795,7 +19687,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52068362408846</v>
+        <v>1.464416756852636</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.341736841745494</v>
@@ -19884,7 +19776,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.522167891336587</v>
+        <v>1.463950235561562</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.416633533732207</v>
@@ -19973,7 +19865,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531257286624434</v>
+        <v>1.471957074071148</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.450072410468712</v>
@@ -20062,7 +19954,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.53638536855021</v>
+        <v>1.475540745977366</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.449342030318014</v>
@@ -20151,7 +20043,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.537542171172742</v>
+        <v>1.475555365813542</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.324651844319382</v>
@@ -20240,7 +20132,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.53498105983224</v>
+        <v>1.480656789411518</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.44689253260024</v>
@@ -20329,7 +20221,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.531873595800058</v>
+        <v>1.478667764384562</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.545805135008535</v>
@@ -20418,7 +20310,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53049241525818</v>
+        <v>1.47893234807226</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.560752990995699</v>
@@ -20507,7 +20399,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.53323811714651</v>
+        <v>1.483990154033413</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.476136801332506</v>
@@ -20596,7 +20488,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563175783487316</v>
+        <v>1.507929519901618</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.997621159047016</v>
@@ -20685,7 +20577,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563115050874679</v>
+        <v>1.504450089567932</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.036366255156221</v>
@@ -20774,7 +20666,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.549297000000497</v>
+        <v>1.493024093994899</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.775071199760871</v>
@@ -20863,7 +20755,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.551924425790884</v>
+        <v>1.497128604905566</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.009727254953782</v>
@@ -20952,7 +20844,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547004586086297</v>
+        <v>1.492094082873444</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.160565998855839</v>
@@ -21041,7 +20933,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.541294107071798</v>
+        <v>1.48493706683068</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.744350712117813</v>
@@ -21130,7 +21022,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.529585937416926</v>
+        <v>1.47483218626362</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.094423811918957</v>
@@ -21219,7 +21111,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.527304697612425</v>
+        <v>1.477128769225145</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.113171237657879</v>
@@ -21308,7 +21200,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.529102931024531</v>
+        <v>1.474590458713806</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.935707556947029</v>
@@ -21397,7 +21289,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.529495928810241</v>
+        <v>1.480738299967979</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.74304063963523</v>
@@ -21486,7 +21378,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.530112442751267</v>
+        <v>1.482657911443211</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.753498890093294</v>
@@ -21575,7 +21467,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.512284086069484</v>
+        <v>1.47063210266583</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.886205321168562</v>
@@ -21861,7 +21753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.243234580288185</v>
+        <v>1.196950539071979</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.003138389183718</v>
@@ -21950,7 +21842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.231865652658633</v>
+        <v>1.195687622892226</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.084393847432007</v>
@@ -22039,7 +21931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.235793336853299</v>
+        <v>1.20074079070714</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.962462402423282</v>
@@ -22128,7 +22020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.244745954300984</v>
+        <v>1.214645490011643</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.934536066598071</v>
@@ -22217,7 +22109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.250296369946193</v>
+        <v>1.218706565292951</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.086245876875287</v>
@@ -22306,7 +22198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.266471657971717</v>
+        <v>1.238475333684274</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.073758383004926</v>
@@ -22395,7 +22287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.258554243237153</v>
+        <v>1.228298833264548</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.121694999705694</v>
@@ -22484,7 +22376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.273503643978605</v>
+        <v>1.242133775781378</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.04528264038862</v>
@@ -22573,7 +22465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.279625004630357</v>
+        <v>1.250762390759641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.914808933342439</v>
@@ -22662,7 +22554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.25161865444074</v>
+        <v>1.225033530109909</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.085285580870037</v>
@@ -22751,7 +22643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.263857953795326</v>
+        <v>1.239521221450827</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.85207410474028</v>
@@ -22840,7 +22732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.265385493774145</v>
+        <v>1.241464808563333</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.06532407408665</v>
@@ -22929,7 +22821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.26617924359066</v>
+        <v>1.235902444561587</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.078696343569687</v>
@@ -23018,7 +22910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.276183864608911</v>
+        <v>1.242427756817148</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.882632568326225</v>
@@ -23107,7 +22999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.288166545914448</v>
+        <v>1.248440247612906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.108827969933392</v>
@@ -23196,7 +23088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.303282388687908</v>
+        <v>1.262714930455626</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.885307119625838</v>
@@ -23285,7 +23177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.310323737419174</v>
+        <v>1.266166909277093</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.996301427746906</v>
@@ -23374,7 +23266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.315650132492792</v>
+        <v>1.266202819360682</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.006904878458813</v>
@@ -23463,7 +23355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.314769337441639</v>
+        <v>1.263381778551394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.010753949564212</v>
@@ -23552,7 +23444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.306593157201304</v>
+        <v>1.255589210080372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.085669685722748</v>
@@ -23641,7 +23533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.308043614210598</v>
+        <v>1.251686041668415</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.059942181924839</v>
@@ -23730,7 +23622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.297146998442628</v>
+        <v>1.24501306628755</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.055277909154415</v>
@@ -23819,7 +23711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.287602419492481</v>
+        <v>1.238333385519783</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.006879584259463</v>
@@ -23908,7 +23800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.301697455274861</v>
+        <v>1.249753947015822</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.026063333965369</v>
@@ -23997,7 +23889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.32806991786336</v>
+        <v>1.26634465785594</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.023289851460165</v>
@@ -24086,7 +23978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.329878477971481</v>
+        <v>1.26238033006601</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.968121716442995</v>
@@ -24175,7 +24067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.277551535450933</v>
+        <v>1.225346748994951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.970552051201605</v>
@@ -24264,7 +24156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.285665106559573</v>
+        <v>1.239825880442384</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.904374983191092</v>
@@ -24353,7 +24245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.271256819627989</v>
+        <v>1.226818630101304</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.929724494861827</v>
@@ -24442,7 +24334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.254902193904374</v>
+        <v>1.221480693488444</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.977917382795454</v>
@@ -24531,7 +24423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.263735696032946</v>
+        <v>1.223271517818788</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.017960659417755</v>
@@ -24620,7 +24512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.246544619663813</v>
+        <v>1.210437888164279</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.972517309226262</v>
@@ -24709,7 +24601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.240917672962752</v>
+        <v>1.205513894135111</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.987996625148488</v>
@@ -24798,7 +24690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.239515751878416</v>
+        <v>1.203115444757807</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.949351053564104</v>
@@ -24887,7 +24779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.24027814607462</v>
+        <v>1.206705411775817</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.962661039765259</v>
@@ -24976,7 +24868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.240184005804051</v>
+        <v>1.207844301005087</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.934351028349654</v>
@@ -25065,7 +24957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.253921716561243</v>
+        <v>1.218950887393726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.77612274489716</v>
@@ -25154,7 +25046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.229389172203168</v>
+        <v>1.197659031669352</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.994291196661544</v>
@@ -25243,7 +25135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.217528609468653</v>
+        <v>1.192469306922308</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.791096849270624</v>
@@ -25332,7 +25224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.213492829282234</v>
+        <v>1.187909932599548</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.950169959169926</v>
@@ -25421,7 +25313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.228340128183521</v>
+        <v>1.198246843082036</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.866114766031201</v>
@@ -25510,7 +25402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.228949801056607</v>
+        <v>1.195046048080018</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.117896488247793</v>
@@ -25599,7 +25491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.225919652426597</v>
+        <v>1.191290455383774</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.07541981843373</v>
@@ -25688,7 +25580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.23900922686945</v>
+        <v>1.200757144989288</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.996105023995398</v>
@@ -25777,7 +25669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.255194140712846</v>
+        <v>1.215788516750904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.846191144324069</v>
@@ -25866,7 +25758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.233242743112067</v>
+        <v>1.197621809013772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.058041306857489</v>
@@ -25955,7 +25847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.2325298835108</v>
+        <v>1.200726590320474</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.081475196840454</v>
@@ -26044,7 +25936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.218189736136936</v>
+        <v>1.18974720684001</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.02243074630596</v>
@@ -26133,7 +26025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.210455135252529</v>
+        <v>1.184155914383389</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.061279139786351</v>
@@ -26222,7 +26114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.21773024968232</v>
+        <v>1.190766929605234</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.065973946348169</v>
@@ -26311,7 +26203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.210801294597777</v>
+        <v>1.185783027775135</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.093815050878556</v>
@@ -26400,7 +26292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.194275165851965</v>
+        <v>1.168684040666152</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.850676626503582</v>
@@ -26489,7 +26381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.211932585252661</v>
+        <v>1.184161104456318</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.912981152650473</v>
@@ -26578,7 +26470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.222011293431717</v>
+        <v>1.193164802287324</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.835023476026243</v>
@@ -26667,7 +26559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.205341609674909</v>
+        <v>1.176941646365449</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.887154635505858</v>
@@ -26756,7 +26648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.214174599002938</v>
+        <v>1.181191001814652</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.744826112671128</v>
@@ -26845,7 +26737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.209207159099337</v>
+        <v>1.181594176905167</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.832907193494877</v>
@@ -26934,7 +26826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.198397910772711</v>
+        <v>1.173177805735242</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.902485588006281</v>
@@ -27023,7 +26915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.199239123661553</v>
+        <v>1.172996899960707</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.883011602643589</v>
@@ -27112,7 +27004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.190411680238538</v>
+        <v>1.162992258173609</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.917572130630711</v>
@@ -27201,7 +27093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.198460290412526</v>
+        <v>1.169145302173299</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.895900515976039</v>
@@ -27487,7 +27379,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490297917186219</v>
+        <v>1.495912177114536</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.548322660034894</v>
@@ -27576,7 +27468,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.520584914366941</v>
+        <v>1.525070535731682</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.387530575382243</v>
@@ -27665,7 +27557,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.525371211949692</v>
+        <v>1.523496889153601</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.223384421356276</v>
@@ -27754,7 +27646,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550247830928601</v>
+        <v>1.543024420613692</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.932087369689564</v>
@@ -27843,7 +27735,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558639186433096</v>
+        <v>1.550696705202095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.362935557639429</v>
@@ -27932,7 +27824,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.563056783391173</v>
+        <v>1.556205474562416</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.960605705947759</v>
@@ -28021,7 +27913,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.580464324870493</v>
+        <v>1.576332181624998</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.813501046560098</v>
@@ -28110,7 +28002,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598982611279745</v>
+        <v>1.596616812423094</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.053571545143036</v>
@@ -28199,7 +28091,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61458936812136</v>
+        <v>1.613799995308031</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.155830438751717</v>
@@ -28288,7 +28180,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614963354855055</v>
+        <v>1.612008395277649</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.771834395983251</v>
@@ -28377,7 +28269,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613486480925967</v>
+        <v>1.607476954036603</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.227937405093215</v>
@@ -28466,7 +28358,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61640381328051</v>
+        <v>1.612589769368567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.969675398542944</v>
@@ -28555,7 +28447,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.601782295534622</v>
+        <v>1.596977852999663</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.204749645500322</v>
@@ -28644,7 +28536,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.599212454000399</v>
+        <v>1.590817337711082</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.811652001679982</v>
@@ -28733,7 +28625,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.603744081393971</v>
+        <v>1.589484500878465</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.985790378726363</v>
@@ -28822,7 +28714,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605063282342915</v>
+        <v>1.589317370904377</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.662793536743036</v>
@@ -28911,7 +28803,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604955342572734</v>
+        <v>1.582250101124801</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.926171752867466</v>
@@ -29000,7 +28892,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622505975852876</v>
+        <v>1.602553846933405</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.993763261709148</v>
@@ -29089,7 +28981,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634801495814789</v>
+        <v>1.609486864557869</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.980439861684167</v>
@@ -29178,7 +29070,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606969261689423</v>
+        <v>1.58638163551424</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.140213956872666</v>
@@ -29267,7 +29159,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608442563771671</v>
+        <v>1.57948909491205</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.738805999808724</v>
@@ -29356,7 +29248,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.590551852475061</v>
+        <v>1.559765101576317</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.72881625784025</v>
@@ -29445,7 +29337,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58042234516004</v>
+        <v>1.552329566867227</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.658179576684409</v>
@@ -29534,7 +29426,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577015923748016</v>
+        <v>1.544301211204721</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.692326062634128</v>
@@ -29623,7 +29515,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.550315301912895</v>
+        <v>1.517856127182435</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.76524107802172</v>
@@ -29712,7 +29604,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55745836941214</v>
+        <v>1.522326921280228</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.526384859812296</v>
@@ -29801,7 +29693,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550429626639465</v>
+        <v>1.512142117361808</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.709062444125245</v>
@@ -29890,7 +29782,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.560295788990803</v>
+        <v>1.522892147054874</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.637321656092125</v>
@@ -29979,7 +29871,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.557047235999075</v>
+        <v>1.519473728791433</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.76517087313259</v>
@@ -30068,7 +29960,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560936645836549</v>
+        <v>1.520556460751501</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.650867493670237</v>
@@ -30157,7 +30049,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543303885049445</v>
+        <v>1.502974833252194</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.705669129181233</v>
@@ -30246,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.538593175078967</v>
+        <v>1.497754229642981</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.50509844380658</v>
@@ -30335,7 +30227,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542858985302818</v>
+        <v>1.497198573541718</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.526576754528985</v>
@@ -30424,7 +30316,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534261593399952</v>
+        <v>1.487547733801044</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.724438535009158</v>
@@ -30513,7 +30405,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.554905391128651</v>
+        <v>1.501996146148351</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.687317147882639</v>
@@ -30602,7 +30494,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.538296694279676</v>
+        <v>1.492242453962956</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.445971593682663</v>
@@ -30691,7 +30583,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56049698437856</v>
+        <v>1.510964554285436</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.57642187517155</v>
@@ -30780,7 +30672,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.529027261211082</v>
+        <v>1.480448189911824</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.49846447891943</v>
@@ -30869,7 +30761,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536598569244917</v>
+        <v>1.487504361462597</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.724286298900283</v>
@@ -30958,7 +30850,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.565984819969843</v>
+        <v>1.511780568898076</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.32246886629871</v>
@@ -31047,7 +30939,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55358542742714</v>
+        <v>1.500469156078086</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.458446153139521</v>
@@ -31136,7 +31028,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549025511634143</v>
+        <v>1.496394318504821</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.339507161158137</v>
@@ -31225,7 +31117,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54642768556182</v>
+        <v>1.493899744001988</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.340551803542734</v>
@@ -31314,7 +31206,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552667550493348</v>
+        <v>1.496152068551246</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.379969938322836</v>
@@ -31403,7 +31295,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.549536301017435</v>
+        <v>1.495264675511152</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.540876297278638</v>
@@ -31492,7 +31384,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564600775035336</v>
+        <v>1.511407567454306</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.361302026841553</v>
@@ -31581,7 +31473,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553723154353523</v>
+        <v>1.50521921338581</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.418741000768875</v>
@@ -31670,7 +31562,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.540844266568818</v>
+        <v>1.499285383127307</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.41516895809364</v>
@@ -31759,7 +31651,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535812327148299</v>
+        <v>1.499285841566971</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.347904280925695</v>
@@ -31848,7 +31740,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.532498433753833</v>
+        <v>1.49648120692413</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.424318488117536</v>
@@ -31937,7 +31829,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.534208093965349</v>
+        <v>1.493928834081128</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.406105888681995</v>
@@ -32026,7 +31918,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.521846447258079</v>
+        <v>1.484938847669003</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.421664339531504</v>
@@ -32115,7 +32007,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.55814682471944</v>
+        <v>1.517637879529769</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.372813424093564</v>
@@ -32204,7 +32096,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553061903122157</v>
+        <v>1.512963566777777</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.394348069163545</v>
@@ -32293,7 +32185,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546651963281117</v>
+        <v>1.513840921428392</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.694126035120801</v>
@@ -32382,7 +32274,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.544950389130337</v>
+        <v>1.508035627197403</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.33062092182783</v>
@@ -32471,7 +32363,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.546007079663252</v>
+        <v>1.510767026406525</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.507127335516345</v>
@@ -32560,7 +32452,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.534148073165647</v>
+        <v>1.504537480347308</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.63374985658581</v>
@@ -32649,7 +32541,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53348811553143</v>
+        <v>1.505985281089632</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.450677298272568</v>
@@ -32738,7 +32630,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.528933871848325</v>
+        <v>1.503839268488639</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.60045774746614</v>
@@ -32827,7 +32719,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.526454378279335</v>
+        <v>1.501272700257182</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.686828054074562</v>
@@ -33113,7 +33005,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418933365480715</v>
+        <v>1.394017012397672</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.598064607547014</v>
@@ -33202,7 +33094,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.437561503708257</v>
+        <v>1.409788182259087</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.198663440974223</v>
@@ -33291,7 +33183,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.425658246456591</v>
+        <v>1.394371685626069</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.534447635860396</v>
@@ -33380,7 +33272,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.435982547438215</v>
+        <v>1.401580829610513</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.393817337126366</v>
@@ -33469,7 +33361,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.440420243956756</v>
+        <v>1.406674806076032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.242622946755265</v>
@@ -33558,7 +33450,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460565484801464</v>
+        <v>1.429232093372712</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.375694906660321</v>
@@ -33647,7 +33539,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49645590165531</v>
+        <v>1.45974793761933</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.306209189587009</v>
@@ -33736,7 +33628,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.501485996884661</v>
+        <v>1.46653606668371</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.516389205270537</v>
@@ -33825,7 +33717,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.510239949171999</v>
+        <v>1.474386505968593</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.48049530624968</v>
@@ -33914,7 +33806,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519078875711146</v>
+        <v>1.485381961695996</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.46200993778248</v>
@@ -34003,7 +33895,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.529720523889071</v>
+        <v>1.493211809660443</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.496628033876449</v>
@@ -34092,7 +33984,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.538718577975526</v>
+        <v>1.498063132575893</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.302738093123315</v>
@@ -34181,7 +34073,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.547865778965429</v>
+        <v>1.506691055739789</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.350465534470495</v>
@@ -34270,7 +34162,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547669405680186</v>
+        <v>1.511285449448709</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.448998245463803</v>
@@ -34359,7 +34251,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525473147098268</v>
+        <v>1.490147491337543</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.406421222026689</v>
@@ -34448,7 +34340,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531492642135885</v>
+        <v>1.496760040612703</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.534157337934843</v>
@@ -34537,7 +34429,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556028051875244</v>
+        <v>1.519197071545837</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.473383894210949</v>
@@ -34626,7 +34518,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.567685067316639</v>
+        <v>1.529020665825302</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.799596985082089</v>
@@ -34715,7 +34607,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589838790020947</v>
+        <v>1.547020518760628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.906399397273799</v>
@@ -34804,7 +34696,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564000292604833</v>
+        <v>1.529700557487187</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.734546815971302</v>
@@ -34893,7 +34785,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559001422571493</v>
+        <v>1.518278507751128</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.717061636898391</v>
@@ -34982,7 +34874,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552652251100003</v>
+        <v>1.512702862088254</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.718560392467606</v>
@@ -35071,7 +34963,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561317167325243</v>
+        <v>1.516782358698304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.898544180910713</v>
@@ -35160,7 +35052,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576453039139286</v>
+        <v>1.528776060391054</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.910833151577374</v>
@@ -35249,7 +35141,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572200266799132</v>
+        <v>1.522171551345607</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.672331384682308</v>
@@ -35338,7 +35230,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570569059254499</v>
+        <v>1.521794588257459</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.692747679171468</v>
@@ -35427,7 +35319,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590015414346668</v>
+        <v>1.543596603867337</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.608241158334675</v>
@@ -35516,7 +35408,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570741243181532</v>
+        <v>1.528593692078628</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.577927768202847</v>
@@ -35605,7 +35497,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581992762321992</v>
+        <v>1.540901608704375</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.500354802544408</v>
@@ -35694,7 +35586,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61082082027812</v>
+        <v>1.562059183978301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.684993067715656</v>
@@ -35783,7 +35675,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.599053453605405</v>
+        <v>1.552406905453</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.615001400968529</v>
@@ -35872,7 +35764,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605955205879107</v>
+        <v>1.557574945383927</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.665104733568206</v>
@@ -35961,7 +35853,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609737741653742</v>
+        <v>1.563133849478265</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.639950590260137</v>
@@ -36050,7 +35942,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615053514682542</v>
+        <v>1.568173836098856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.412484949750157</v>
@@ -36139,7 +36031,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649420147817081</v>
+        <v>1.591804941839669</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.905768946283965</v>
@@ -36228,7 +36120,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.654732491223579</v>
+        <v>1.60462072257031</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.03859874780501</v>
@@ -36317,7 +36209,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.672640488631072</v>
+        <v>1.620898903312983</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.087061870447999</v>
@@ -36406,7 +36298,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638597393286564</v>
+        <v>1.586320865837488</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.767845657438873</v>
@@ -36495,7 +36387,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631380457008431</v>
+        <v>1.583738425040245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.842574330333049</v>
@@ -36584,7 +36476,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639884407394513</v>
+        <v>1.588459216905068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.800773032336081</v>
@@ -36673,7 +36565,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.650953498033734</v>
+        <v>1.598558829345771</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.736470102725784</v>
@@ -36762,7 +36654,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.651835658546868</v>
+        <v>1.589156433539605</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.591770279736739</v>
@@ -36851,7 +36743,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.670808441415132</v>
+        <v>1.604387043239969</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.596007815720882</v>
@@ -36940,7 +36832,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.683892071838196</v>
+        <v>1.61424834880126</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.62527196306789</v>
@@ -37029,7 +36921,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679478765335554</v>
+        <v>1.619328975920408</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.98876688006877</v>
@@ -37118,7 +37010,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.6901961669372</v>
+        <v>1.630149061009123</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.908184891668263</v>
@@ -37207,7 +37099,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.662441138677414</v>
+        <v>1.610277929259845</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.737217730771311</v>
@@ -37296,7 +37188,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65446672132667</v>
+        <v>1.605968104364072</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.765318420410362</v>
@@ -37385,7 +37277,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.649558311614715</v>
+        <v>1.604855142997569</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.781547879770837</v>
@@ -37474,7 +37366,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656592167971971</v>
+        <v>1.612688863883481</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.796628885761018</v>
@@ -37563,7 +37455,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.63699672023838</v>
+        <v>1.592373814007239</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.676409678641774</v>
@@ -37652,7 +37544,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.607346957987696</v>
+        <v>1.571263188696597</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.673946208132917</v>
@@ -37741,7 +37633,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629194411527739</v>
+        <v>1.596346763152771</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.561344477384644</v>
@@ -37830,7 +37722,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.634420829426086</v>
+        <v>1.596249577158789</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.692516682742295</v>
@@ -37919,7 +37811,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624012603227313</v>
+        <v>1.590187313669045</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.673189402757506</v>
@@ -38008,7 +37900,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.604977153415362</v>
+        <v>1.570470019227706</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.602574444818026</v>
@@ -38097,7 +37989,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.586551293570808</v>
+        <v>1.564975424943381</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.667060267737641</v>
@@ -38186,7 +38078,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580854734714785</v>
+        <v>1.557950817299488</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.670015203574473</v>
@@ -38275,7 +38167,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571337110162436</v>
+        <v>1.550413665285906</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.500099560380663</v>
@@ -38364,7 +38256,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.556305813319055</v>
+        <v>1.535605184170899</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.630302135285447</v>
@@ -38453,7 +38345,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.544025111295978</v>
+        <v>1.524445461289474</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.556008465067134</v>
